--- a/umati2mtc/Adapter/Mapping.xlsx
+++ b/umati2mtc/Adapter/Mapping.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\arzer\Seafile\Meine Bibliothek\MeineProjekte\umati\connect\umati2mtc\Adapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBC5C86-CAF1-41E0-84E2-499FF3084F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23F59C6-2470-4E36-BAC4-C68D8368D2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-5280" windowWidth="16440" windowHeight="28320" activeTab="3" xr2:uid="{40695492-071F-42C0-91D8-1CF4EDDA561A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{40695492-071F-42C0-91D8-1CF4EDDA561A}"/>
   </bookViews>
   <sheets>
     <sheet name="DMG" sheetId="9" r:id="rId1"/>
     <sheet name="Mazak" sheetId="11" r:id="rId2"/>
     <sheet name="Mazak_SampleServer" sheetId="8" r:id="rId3"/>
-    <sheet name="Mapping_MazakShowroom_testing" sheetId="13" r:id="rId4"/>
+    <sheet name="Mazak_MTC" sheetId="13" r:id="rId4"/>
     <sheet name="Modelling Rules" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5560" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5561" uniqueCount="613">
   <si>
     <t>Modelling Rule</t>
   </si>
@@ -1864,13 +1864,10 @@
     <t>Path/path/Program, subtype MAIN</t>
   </si>
   <si>
-    <t>Sovr</t>
-  </si>
-  <si>
-    <t>Fact</t>
-  </si>
-  <si>
     <t>Mandatory depending - applies if the superior node is optional but child is mandatory</t>
+  </si>
+  <si>
+    <t>Mapped based on umati sample server</t>
   </si>
 </sst>
 </file>
@@ -7219,8 +7216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA108938-A41A-4607-947C-EAC9A8B9EE57}">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="F44" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12285,8 +12282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84283000-7D10-4DA9-8365-BFFC6E636655}">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="A2:L200"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17774,8 +17771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CC16B4-FA5D-4BA4-AB7A-0990BA412A67}">
   <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="F49" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18388,13 +18385,10 @@
         <v>382</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>602</v>
       </c>
       <c r="M19" s="13"/>
     </row>
@@ -18547,13 +18541,10 @@
         <v>392</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>603</v>
       </c>
       <c r="M24" s="13"/>
     </row>
@@ -19900,6 +19891,9 @@
       <c r="K72" s="16" t="s">
         <v>196</v>
       </c>
+      <c r="L72" s="16" t="s">
+        <v>612</v>
+      </c>
       <c r="M72" s="17"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -19955,7 +19949,9 @@
       <c r="K74" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M74" s="13"/>
+      <c r="M74" s="13" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -19985,7 +19981,9 @@
       <c r="K75" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M75" s="13"/>
+      <c r="M75" s="13" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
@@ -22969,7 +22967,7 @@
         <v>92</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
